--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H2">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1532026666666667</v>
+        <v>0.1944653333333334</v>
       </c>
       <c r="N2">
-        <v>0.459608</v>
+        <v>0.583396</v>
       </c>
       <c r="O2">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761122</v>
       </c>
       <c r="P2">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761121</v>
       </c>
       <c r="Q2">
-        <v>1.823971966306667</v>
+        <v>4.595288751166667</v>
       </c>
       <c r="R2">
-        <v>16.41574769676</v>
+        <v>41.3575987605</v>
       </c>
       <c r="S2">
-        <v>0.03225809310656693</v>
+        <v>0.04449741417699924</v>
       </c>
       <c r="T2">
-        <v>0.03225809310656693</v>
+        <v>0.04449741417699923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H3">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.50807</v>
       </c>
       <c r="O3">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="P3">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="Q3">
-        <v>2.016295271016667</v>
+        <v>4.001961542083333</v>
       </c>
       <c r="R3">
-        <v>18.14665743915</v>
+        <v>36.01765387875</v>
       </c>
       <c r="S3">
-        <v>0.03565945189085799</v>
+        <v>0.03875206758515315</v>
       </c>
       <c r="T3">
-        <v>0.03565945189085799</v>
+        <v>0.03875206758515314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H4">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>10.711384</v>
       </c>
       <c r="O4">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672334</v>
       </c>
       <c r="P4">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672333</v>
       </c>
       <c r="Q4">
-        <v>42.50853800705332</v>
+        <v>84.37134022966664</v>
       </c>
       <c r="R4">
-        <v>382.5768420634799</v>
+        <v>759.3420620669998</v>
       </c>
       <c r="S4">
-        <v>0.7517902699086857</v>
+        <v>0.8169903294792608</v>
       </c>
       <c r="T4">
-        <v>0.7517902699086857</v>
+        <v>0.8169903294792605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1532026666666667</v>
+        <v>0.1944653333333334</v>
       </c>
       <c r="N5">
-        <v>0.459608</v>
+        <v>0.583396</v>
       </c>
       <c r="O5">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761122</v>
       </c>
       <c r="P5">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761121</v>
       </c>
       <c r="Q5">
-        <v>0.24992563824</v>
+        <v>0.31723907688</v>
       </c>
       <c r="R5">
-        <v>2.24933074416</v>
+        <v>2.85515169192</v>
       </c>
       <c r="S5">
-        <v>0.004420092335294471</v>
+        <v>0.003071911116243646</v>
       </c>
       <c r="T5">
-        <v>0.004420092335294471</v>
+        <v>0.003071911116243645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>0.50807</v>
       </c>
       <c r="O6">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="P6">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="Q6">
         <v>0.2762783046</v>
@@ -818,10 +818,10 @@
         <v>2.4865047414</v>
       </c>
       <c r="S6">
-        <v>0.004886155838873697</v>
+        <v>0.002675276965954359</v>
       </c>
       <c r="T6">
-        <v>0.004886155838873697</v>
+        <v>0.002675276965954358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>10.711384</v>
       </c>
       <c r="O7">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672334</v>
       </c>
       <c r="P7">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672333</v>
       </c>
       <c r="Q7">
         <v>5.824636391519999</v>
@@ -880,10 +880,10 @@
         <v>52.42172752367999</v>
       </c>
       <c r="S7">
-        <v>0.1030123634027167</v>
+        <v>0.05640151728835015</v>
       </c>
       <c r="T7">
-        <v>0.1030123634027167</v>
+        <v>0.05640151728835014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>2.961789</v>
       </c>
       <c r="I8">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J8">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1532026666666667</v>
+        <v>0.1944653333333334</v>
       </c>
       <c r="N8">
-        <v>0.459608</v>
+        <v>0.583396</v>
       </c>
       <c r="O8">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761122</v>
       </c>
       <c r="P8">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761121</v>
       </c>
       <c r="Q8">
-        <v>0.1512513243013333</v>
+        <v>0.1919884283826667</v>
       </c>
       <c r="R8">
-        <v>1.361261918712</v>
+        <v>1.727895855444</v>
       </c>
       <c r="S8">
-        <v>0.002674974940367935</v>
+        <v>0.001859075474368342</v>
       </c>
       <c r="T8">
-        <v>0.002674974940367934</v>
+        <v>0.001859075474368341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.961789</v>
       </c>
       <c r="I9">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J9">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>0.50807</v>
       </c>
       <c r="O9">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="P9">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="Q9">
         <v>0.1671995708033333</v>
@@ -1004,10 +1004,10 @@
         <v>1.50479613723</v>
       </c>
       <c r="S9">
-        <v>0.002957029725228317</v>
+        <v>0.00161903831404796</v>
       </c>
       <c r="T9">
-        <v>0.002957029725228317</v>
+        <v>0.001619038314047959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.961789</v>
       </c>
       <c r="I10">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J10">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>10.711384</v>
       </c>
       <c r="O10">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672334</v>
       </c>
       <c r="P10">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672333</v>
       </c>
       <c r="Q10">
         <v>3.524984367330666</v>
@@ -1066,10 +1066,10 @@
         <v>31.724859305976</v>
       </c>
       <c r="S10">
-        <v>0.06234156885140825</v>
+        <v>0.03413336959962266</v>
       </c>
       <c r="T10">
-        <v>0.06234156885140824</v>
+        <v>0.03413336959962266</v>
       </c>
     </row>
   </sheetData>
